--- a/Javascrpit.xlsx
+++ b/Javascrpit.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guruprasad_morasa\Desktop\Mydocs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Works\JavaScript\30 Days Javascript\github\JuneBatch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636666F4-CB93-43B6-ADA3-9A9DEB94A5F5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{79F15495-A831-4428-841C-4A21A517E652}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -199,14 +198,17 @@
   </si>
   <si>
     <t>2-3hr</t>
+  </si>
+  <si>
+    <t>Done</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -265,7 +267,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -581,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75116C5-E77E-4E10-8AE8-D2B35F7A6D0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="D6" activeCellId="1" sqref="C3 D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,6 +646,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -651,6 +656,9 @@
       </c>
       <c r="B3" t="s">
         <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">

--- a/Javascrpit.xlsx
+++ b/Javascrpit.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -587,7 +587,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" activeCellId="1" sqref="C3 D6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,6 +668,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
